--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1936850.741557434</v>
+        <v>-1940990.447971391</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791247</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14240332.39146959</v>
+        <v>14237382.4945175</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>60.81672009109136</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>128.4731406083584</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,16 +744,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>47.63147056405646</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -789,7 +789,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>125.1182572769868</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>90.92857651874441</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.6730785121822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>249.221861659444</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>366.6251159283717</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88.28811676593642</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>96.52485201226399</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>21.6169741266378</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>179.4080122938798</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>23.72948009474732</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1151,7 +1151,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>22.82033371723903</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1342,13 +1342,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>105.6284318300724</v>
       </c>
       <c r="V10" t="n">
-        <v>220.130219788131</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>312.8527944536406</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>327.479377239889</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372795</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362806</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>104.7978828185341</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>321.447489593873</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>54.56522687043236</v>
+        <v>97.42475435993879</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177851</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.094064770696859</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442491</v>
+        <v>84.67436304442489</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681703</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338909</v>
+        <v>82.84545313338907</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456102</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901693</v>
+        <v>51.58366707901692</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534023</v>
@@ -1607,25 +1607,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344424</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372792</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>12.54612284480538</v>
+        <v>166.5430216364784</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993877</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.9984695717785</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681701</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>74.26137370902923</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456099</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901691</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>167.7664505507956</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.59377642287626</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G23" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2363,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X23" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>287.5954430211825</v>
+        <v>287.5954430211824</v>
       </c>
       <c r="E26" t="n">
         <v>304.5664151603044</v>
@@ -2570,10 +2570,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H26" t="n">
-        <v>226.8509454548578</v>
+        <v>226.8509454548577</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414332</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404344</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007176</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035417</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.0855074921939</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507301</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484028</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723241</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380445</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497638</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.6707049994323</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838902</v>
+        <v>24.17382596574978</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828915</v>
+        <v>52.06849973564991</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431747</v>
+        <v>70.57601873167823</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459988</v>
+        <v>55.72314698196064</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643961</v>
+        <v>41.29686219380037</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931872</v>
+        <v>41.22330424667948</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908598</v>
+        <v>42.97275566644674</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147812</v>
+        <v>53.79159358883888</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805016</v>
+        <v>41.14384575541092</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922209</v>
+        <v>18.98356133658285</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367801</v>
+        <v>9.88205970103877</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920533</v>
+        <v>88.00800320656609</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>529.4866005744632</v>
+        <v>1110.204228944838</v>
       </c>
       <c r="C2" t="n">
-        <v>529.4866005744632</v>
+        <v>717.0287274477687</v>
       </c>
       <c r="D2" t="n">
-        <v>468.0555701794214</v>
+        <v>331.5875986644364</v>
       </c>
       <c r="E2" t="n">
-        <v>65.47204529596594</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634777</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475499</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475499</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059667</v>
+        <v>1048.426217084555</v>
       </c>
       <c r="N2" t="n">
-        <v>1826.595477606228</v>
+        <v>1562.028895694244</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606228</v>
+        <v>2002.068496586572</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023272</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.289453582688</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="U2" t="n">
-        <v>1657.536724017287</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="V2" t="n">
-        <v>1315.429914720805</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="W2" t="n">
-        <v>1315.429914720805</v>
+        <v>1499.656834011781</v>
       </c>
       <c r="X2" t="n">
-        <v>925.9773096538621</v>
+        <v>1110.204228944838</v>
       </c>
       <c r="Y2" t="n">
-        <v>529.4866005744632</v>
+        <v>1110.204228944838</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>706.4151516456737</v>
+        <v>556.1927859813165</v>
       </c>
       <c r="C3" t="n">
-        <v>555.760921205766</v>
+        <v>405.5385555414088</v>
       </c>
       <c r="D3" t="n">
-        <v>425.6719538272462</v>
+        <v>275.4495881628891</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737768</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>139.0030972737768</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>139.0030972737768</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284341</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653876</v>
+        <v>407.9705203262574</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875481</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466462</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535683</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1889.55317147812</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1679.490028156762</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1456.950026527829</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1226.832780661116</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.525703011128</v>
+        <v>887.3033373467706</v>
       </c>
       <c r="Y3" t="n">
-        <v>858.2114860866351</v>
+        <v>707.9891204222779</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>489.3945705832102</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="C4" t="n">
-        <v>489.3945705832102</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="D4" t="n">
-        <v>489.3945705832102</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="E4" t="n">
-        <v>489.3945705832102</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="F4" t="n">
-        <v>332.0686357961831</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="G4" t="n">
-        <v>332.0686357961831</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>851.1032223092602</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>648.2871384918096</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>412.5680866600438</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>412.5680866600438</v>
       </c>
       <c r="V4" t="n">
-        <v>678.9633367571316</v>
+        <v>412.5680866600438</v>
       </c>
       <c r="W4" t="n">
-        <v>678.9633367571316</v>
+        <v>412.5680866600438</v>
       </c>
       <c r="X4" t="n">
-        <v>678.9633367571316</v>
+        <v>412.5680866600438</v>
       </c>
       <c r="Y4" t="n">
-        <v>489.3945705832102</v>
+        <v>412.5680866600438</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>596.9846637005705</v>
+        <v>1315.38133282233</v>
       </c>
       <c r="C5" t="n">
-        <v>203.8091622035011</v>
+        <v>1315.38133282233</v>
       </c>
       <c r="D5" t="n">
-        <v>203.8091622035011</v>
+        <v>929.940204038998</v>
       </c>
       <c r="E5" t="n">
-        <v>203.8091622035011</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>190.9551277738829</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>95.16671432390586</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>95.16671432390586</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>588.4870060424347</v>
       </c>
       <c r="M5" t="n">
-        <v>1040.448080049574</v>
+        <v>588.4870060424347</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572951</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465279</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T5" t="n">
-        <v>1951.282367297166</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U5" t="n">
-        <v>1699.543113095708</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V5" t="n">
-        <v>1357.436303799226</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="W5" t="n">
-        <v>986.4372687675137</v>
+        <v>1704.833937889273</v>
       </c>
       <c r="X5" t="n">
-        <v>596.9846637005705</v>
+        <v>1315.38133282233</v>
       </c>
       <c r="Y5" t="n">
-        <v>596.9846637005705</v>
+        <v>1315.38133282233</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>718.4298364179177</v>
+        <v>556.1927859813165</v>
       </c>
       <c r="C6" t="n">
-        <v>567.7756059780099</v>
+        <v>405.5385555414088</v>
       </c>
       <c r="D6" t="n">
-        <v>437.6866385994903</v>
+        <v>275.4495881628891</v>
       </c>
       <c r="E6" t="n">
-        <v>301.240147710378</v>
+        <v>139.0030972737768</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="N6" t="n">
-        <v>1498.174658585115</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466462</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535683</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.3482927843</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917587</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675987</v>
+        <v>887.3033373467706</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.609752343106</v>
+        <v>707.9891204222779</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>231.1998643556801</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="C7" t="n">
-        <v>231.1998643556801</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="D7" t="n">
-        <v>231.1998643556801</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="E7" t="n">
-        <v>231.1998643556801</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="F7" t="n">
-        <v>73.87392956865304</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865304</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865304</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865304</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>720.2912707182124</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U7" t="n">
-        <v>720.2912707182124</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="V7" t="n">
-        <v>454.3119255390367</v>
+        <v>558.9139710421778</v>
       </c>
       <c r="W7" t="n">
-        <v>454.3119255390367</v>
+        <v>275.5835689733553</v>
       </c>
       <c r="X7" t="n">
-        <v>454.3119255390367</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="Y7" t="n">
-        <v>231.1998643556801</v>
+        <v>41.50324675633843</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1171.989036716666</v>
+        <v>1343.703348823463</v>
       </c>
       <c r="C8" t="n">
-        <v>778.8135352195961</v>
+        <v>1319.734177010587</v>
       </c>
       <c r="D8" t="n">
-        <v>393.3724064362639</v>
+        <v>934.2930482272545</v>
       </c>
       <c r="E8" t="n">
-        <v>393.3724064362639</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F8" t="n">
-        <v>380.5183720066457</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,22 +4805,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>173.6308686433316</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>666.9511603618604</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>1212.952060406441</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.763344043903</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>1937.641433863169</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>1595.534624566688</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W8" t="n">
-        <v>1595.534624566688</v>
+        <v>1733.155953890406</v>
       </c>
       <c r="X8" t="n">
-        <v>1572.483782428063</v>
+        <v>1343.703348823463</v>
       </c>
       <c r="Y8" t="n">
-        <v>1572.483782428063</v>
+        <v>1343.703348823463</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>523.5901514638969</v>
+        <v>403.5294713069377</v>
       </c>
       <c r="C10" t="n">
-        <v>523.5901514638969</v>
+        <v>233.3243533729269</v>
       </c>
       <c r="D10" t="n">
-        <v>523.5901514638969</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>523.5901514638969</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -4990,22 +4990,22 @@
         <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>745.9439088256454</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U10" t="n">
-        <v>745.9439088256454</v>
+        <v>403.5294713069377</v>
       </c>
       <c r="V10" t="n">
-        <v>523.5901514638969</v>
+        <v>403.5294713069377</v>
       </c>
       <c r="W10" t="n">
-        <v>523.5901514638969</v>
+        <v>403.5294713069377</v>
       </c>
       <c r="X10" t="n">
-        <v>523.5901514638969</v>
+        <v>403.5294713069377</v>
       </c>
       <c r="Y10" t="n">
-        <v>523.5901514638969</v>
+        <v>403.5294713069377</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1711.843491816804</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>1000.870546681063</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185757</v>
+        <v>655.7723833572343</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527727</v>
+        <v>314.4059029914313</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2770.295603492179</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V11" t="n">
-        <v>2664.439156200731</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.236396315212</v>
+        <v>2290.021483962825</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.236396315212</v>
+        <v>1972.365154042075</v>
       </c>
       <c r="Y11" t="n">
-        <v>2040.541962382007</v>
+        <v>1647.67072010887</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.7456042322037</v>
+        <v>511.1396386607269</v>
       </c>
       <c r="C13" t="n">
-        <v>292.6292134539893</v>
+        <v>412.7307958729102</v>
       </c>
       <c r="D13" t="n">
-        <v>292.6292134539893</v>
+        <v>328.8939579216187</v>
       </c>
       <c r="E13" t="n">
-        <v>292.6292134539893</v>
+        <v>327.7888419916216</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0995538131561</v>
+        <v>242.2591823507884</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131561</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,22 +5200,22 @@
         <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118219</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138155</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814507</v>
@@ -5224,25 +5224,25 @@
         <v>1444.627927593277</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593277</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.0626342958</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628183</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401897</v>
+        <v>938.1512153138201</v>
       </c>
       <c r="X13" t="n">
-        <v>499.0613902693666</v>
+        <v>775.8671682429971</v>
       </c>
       <c r="Y13" t="n">
-        <v>347.7456042322037</v>
+        <v>624.5513822058342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1691.856237801876</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C14" t="n">
-        <v>1370.477011451001</v>
+        <v>1645.302650055463</v>
       </c>
       <c r="D14" t="n">
-        <v>1056.832157813862</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>726.0449080766007</v>
+        <v>1000.870546681063</v>
       </c>
       <c r="F14" t="n">
-        <v>380.9467447527722</v>
+        <v>655.7723833572344</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654567</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579423</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2675.578323579423</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W14" t="n">
-        <v>2662.905472221034</v>
+        <v>2937.731110825495</v>
       </c>
       <c r="X14" t="n">
-        <v>2345.249142300284</v>
+        <v>2620.074780904746</v>
       </c>
       <c r="Y14" t="n">
-        <v>2020.554708367079</v>
+        <v>2295.380346971541</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>477.1322260092919</v>
+        <v>556.686367154245</v>
       </c>
       <c r="C16" t="n">
-        <v>378.7233832214749</v>
+        <v>556.686367154245</v>
       </c>
       <c r="D16" t="n">
-        <v>294.8865452701835</v>
+        <v>472.8495292029536</v>
       </c>
       <c r="E16" t="n">
-        <v>294.8865452701835</v>
+        <v>389.08699220835</v>
       </c>
       <c r="F16" t="n">
-        <v>294.8865452701835</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G16" t="n">
-        <v>198.4287665158229</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5434,22 +5434,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5461,25 +5461,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.685342236449</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245439</v>
+        <v>1099.965602310116</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915622</v>
+        <v>930.5045411476965</v>
       </c>
       <c r="W16" t="n">
-        <v>741.8597555915622</v>
+        <v>718.970414225068</v>
       </c>
       <c r="X16" t="n">
-        <v>741.8597555915622</v>
+        <v>556.686367154245</v>
       </c>
       <c r="Y16" t="n">
-        <v>590.5439695543994</v>
+        <v>556.686367154245</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803432</v>
@@ -5513,7 +5513,7 @@
         <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129439</v>
       </c>
       <c r="K17" t="n">
         <v>565.7512566404057</v>
@@ -5531,7 +5531,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N18" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5668,10 +5668,10 @@
         <v>63.53681638462908</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
@@ -5683,16 +5683,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797591</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296496</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106228</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R19" t="n">
         <v>1098.202162476279</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975459</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099322</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803439</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924307</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,49 +5911,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975448</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803429</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -5993,13 +5993,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,28 +6008,28 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071059</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188066</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573993</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229791</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222398</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102856</v>
+        <v>313.6614512960396</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485496</v>
+        <v>499.9530296343036</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655128</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296496</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="26">
@@ -6206,67 +6206,67 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
         <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142179</v>
       </c>
       <c r="H26" t="n">
         <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>700.0178648958356</v>
       </c>
       <c r="L26" t="n">
-        <v>1342.20402534195</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M26" t="n">
-        <v>1888.204925386531</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N26" t="n">
-        <v>2509.067570753566</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>2949.107171645895</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.34602550699</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377512</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,19 +6297,19 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
         <v>1235.193651060917</v>
@@ -6358,55 +6358,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985347</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517123</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879677</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192013</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225733</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904106</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628626</v>
       </c>
       <c r="Q28" t="n">
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
@@ -6418,16 +6418,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286444</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
         <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6546,13 +6546,13 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="M30" t="n">
-        <v>1095.935962441339</v>
+        <v>1133.990636856185</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517123</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414151</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878063</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879676</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6628,10 +6628,10 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O31" t="n">
         <v>1380.047947122475</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.768815498816</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026477</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463675</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057096</v>
+        <v>601.3807258108108</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835497</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766598</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311917</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.046154349721</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394301</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.031666146213</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765611</v>
+        <v>2844.723727844784</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897133</v>
+        <v>3192.911219976305</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>551.1212215006583</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1178.89287112734</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1834.670842337899</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2351.19112492888</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965138</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918675</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237466</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123135</v>
+        <v>226.0316571652536</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546509</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834609</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431931</v>
+        <v>86.7304500837419</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074062</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082761</v>
+        <v>313.5178165860867</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736102</v>
+        <v>499.8093949243507</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.58316263189</v>
+        <v>759.0249449603691</v>
       </c>
       <c r="O34" t="n">
-        <v>1344.287929673598</v>
+        <v>1033.38183257706</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376595</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518099</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250179</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395533</v>
+        <v>835.7257283273674</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000953</v>
+        <v>666.3144371400703</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124428</v>
+        <v>546.1532258045786</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584506</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
         <v>68.7795079292422</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -7014,19 +7014,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.6987703122989</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012521</v>
+        <v>149.5338114222408</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750519</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133159</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N37" t="n">
-        <v>804.578023344525</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386233</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7166,7 +7166,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7208,10 +7208,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7254,22 +7254,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>346.9752758473783</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>830.5413617456916</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,10 +7339,10 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
         <v>969.3241577214669</v>
@@ -7351,7 +7351,7 @@
         <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7494,19 +7494,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.75511703065</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P42" t="n">
-        <v>2345.75511703065</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7567,28 +7567,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072222</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7728,22 +7728,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1521.202330875214</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7807,25 +7807,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960407</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343048</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>683.142663665514</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072221</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>965.7235964838006</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>399.5110292636035</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>224.133610099864</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
@@ -8064,13 +8064,13 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>419.0606576562869</v>
+        <v>462.5560852512503</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886041</v>
+        <v>604.162697308397</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>171.8853607378688</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8225,7 +8225,7 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>312.0096393411953</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837493</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>485.8810686938573</v>
       </c>
       <c r="O6" t="n">
-        <v>129.6793274559056</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>270.6522400901343</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8471,7 +8471,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>237.3130400541719</v>
       </c>
       <c r="N9" t="n">
-        <v>179.0738312465426</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8766,19 +8766,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>136.3731801151487</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N15" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9407,7 +9407,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
@@ -9477,16 +9477,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,22 +9714,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>543.8532815002535</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,7 +9960,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>454.5321323046924</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -10194,16 +10194,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>199.6102425680203</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276326</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>122.1334109295184</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10601,10 +10601,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10662,22 +10662,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>488.8476739954107</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10902,13 +10902,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>263.0728605086217</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11142,7 +11142,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11154,10 +11154,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q42" t="n">
-        <v>126.0381992661173</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,25 +11376,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>314.1682372053023</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>12.55869140591044</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372793</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362807</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>162.8095459902508</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>42.85952748950644</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177853</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465764</v>
+        <v>81.83084685396079</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.685168714561</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.952815562145</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>283.6646094418581</v>
+        <v>129.6677106501851</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465761</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442488</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>8.584079424359828</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>24.47478878185652</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534023</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1244540.883240795</v>
+        <v>1243037.014206394</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1244540.883240795</v>
+        <v>1243037.014206394</v>
       </c>
     </row>
     <row r="4">
@@ -26314,28 +26314,28 @@
         <v>72132.87123734273</v>
       </c>
       <c r="C2" t="n">
-        <v>72132.87123734273</v>
+        <v>72132.8712373427</v>
       </c>
       <c r="D2" t="n">
         <v>72132.8712373427</v>
       </c>
       <c r="E2" t="n">
-        <v>63743.60936976024</v>
+        <v>63743.60936976025</v>
       </c>
       <c r="F2" t="n">
-        <v>63743.60936976025</v>
+        <v>63743.60936976023</v>
       </c>
       <c r="G2" t="n">
-        <v>72132.87123734268</v>
+        <v>72132.87123734267</v>
       </c>
       <c r="H2" t="n">
-        <v>72132.87123734273</v>
+        <v>72132.87123734265</v>
       </c>
       <c r="I2" t="n">
-        <v>72132.87123734273</v>
+        <v>72132.87123734267</v>
       </c>
       <c r="J2" t="n">
-        <v>72132.87123734262</v>
+        <v>72132.87123734257</v>
       </c>
       <c r="K2" t="n">
         <v>72132.87123734257</v>
@@ -26344,13 +26344,13 @@
         <v>72132.8712373427</v>
       </c>
       <c r="M2" t="n">
-        <v>72132.8712373427</v>
+        <v>72132.87123734267</v>
       </c>
       <c r="N2" t="n">
         <v>72132.8712373427</v>
       </c>
       <c r="O2" t="n">
-        <v>72132.87123734273</v>
+        <v>72132.8712373427</v>
       </c>
       <c r="P2" t="n">
         <v>72132.87123734273</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062183</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668205</v>
+        <v>47425.32553668202</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728552</v>
+        <v>62456.24177539688</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.69404277111</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26433,10 +26433,10 @@
         <v>186364.8769761036</v>
       </c>
       <c r="H4" t="n">
+        <v>186364.8769761036</v>
+      </c>
+      <c r="I4" t="n">
         <v>186364.8769761035</v>
-      </c>
-      <c r="I4" t="n">
-        <v>186364.8769761036</v>
       </c>
       <c r="J4" t="n">
         <v>187115.3694404867</v>
@@ -26445,19 +26445,19 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761036</v>
       </c>
       <c r="N4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="O4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="P4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,22 +26482,22 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="H5" t="n">
         <v>58169.76931551967</v>
-      </c>
-      <c r="H5" t="n">
-        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-398310.9892434781</v>
+        <v>-393658.7696223031</v>
       </c>
       <c r="C6" t="n">
-        <v>-216106.0409516222</v>
+        <v>-219800.1125882481</v>
       </c>
       <c r="D6" t="n">
-        <v>-223850.6216552426</v>
+        <v>-231586.9108786343</v>
       </c>
       <c r="E6" t="n">
-        <v>-240170.9322886461</v>
+        <v>-240380.6638353356</v>
       </c>
       <c r="F6" t="n">
-        <v>-128048.3708146016</v>
+        <v>-128258.1023612913</v>
       </c>
       <c r="G6" t="n">
         <v>-219827.1005909626</v>
       </c>
       <c r="H6" t="n">
-        <v>-172401.7750542804</v>
+        <v>-172401.7750542806</v>
       </c>
       <c r="I6" t="n">
         <v>-172401.7750542805</v>
       </c>
       <c r="J6" t="n">
-        <v>-385443.6926515661</v>
+        <v>-378927.4074969929</v>
       </c>
       <c r="K6" t="n">
         <v>-178641.5434570636</v>
       </c>
       <c r="L6" t="n">
-        <v>-233824.1323916846</v>
+        <v>-237872.969602157</v>
       </c>
       <c r="M6" t="n">
-        <v>-214602.6045139035</v>
+        <v>-215654.2995250918</v>
       </c>
       <c r="N6" t="n">
         <v>-172401.7750542805</v>
       </c>
       <c r="O6" t="n">
-        <v>-200169.4690970517</v>
+        <v>-200169.4690970516</v>
       </c>
       <c r="P6" t="n">
         <v>-172401.7750542805</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155845</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,22 +26802,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293135</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085257</v>
+        <v>59.28165692085253</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346393</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.6268397466069</v>
+        <v>78.0703022192461</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155135</v>
+        <v>17.58004954287438</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346389</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773712</v>
+        <v>659.3622249971645</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407254</v>
+        <v>117.1268713042796</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085257</v>
+        <v>59.28165692085253</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346393</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,13 +27379,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>320.7699974044076</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>270.0845490262625</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27464,16 +27464,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>39.78297167134862</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>50.09571640609377</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27546,7 +27546,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>31.73340295500439</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.20786205934084</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>3.973340610303353</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.663928753023697</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.9902543306153</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>26.66263604343553</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>211.7448871868104</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>83.91153943350417</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.5142663873514</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>362.7377452990347</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28011,25 +28011,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>176.9559720104457</v>
       </c>
       <c r="V10" t="n">
-        <v>43.18933193925298</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28755,19 +28755,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>130.3599693155845</v>
       </c>
-      <c r="O19" t="n">
-        <v>5.636002634527671</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082765</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155845</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28995,37 +28995,37 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082765</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29065,7 +29065,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733193</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="24">
@@ -29193,37 +29193,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668673</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29232,37 +29232,37 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901221</v>
       </c>
       <c r="L26" t="n">
-        <v>86.65052755599436</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431539</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.9912744743165</v>
       </c>
     </row>
     <row r="29">
@@ -29533,13 +29533,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
@@ -29548,13 +29548,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901232</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N32" t="n">
-        <v>48.65992738833313</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000708</v>
+        <v>43.49509683159926</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>76.79385455031229</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P34" t="n">
-        <v>18.71446861254401</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,13 +30165,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668774</v>
       </c>
       <c r="K37" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30411,22 +30411,22 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30651,19 +30651,19 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30879,10 +30879,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L46" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N2" t="n">
-        <v>250.3925379258195</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>73.83216285893882</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>326.673535606975</v>
+        <v>370.1689632019384</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>54.20552279552265</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34945,7 +34945,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>162.8911480034113</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344374</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>400.5089558396907</v>
       </c>
       <c r="O6" t="n">
-        <v>36.99176856701668</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>127.5938369108969</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35191,7 +35191,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>144.92591800486</v>
+      </c>
+      <c r="N9" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N9" t="n">
-        <v>93.70171839237591</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>51.00106726098203</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225728</v>
+        <v>41.00382492257281</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.16534853269</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488435</v>
+        <v>74.53507640488436</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,19 +35732,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N15" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257283</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,19 +36051,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716065</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634527716</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634527716</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.3033249682118</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>458.4811686460869</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.636002634527659</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36528,13 +36528,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907918</v>
       </c>
       <c r="L26" t="n">
-        <v>584.9538525242053</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853757</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698322</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,7 +36680,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>362.1450102553805</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215743</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611265</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963354</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
@@ -36765,13 +36765,13 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113954</v>
       </c>
       <c r="P28" t="n">
         <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446898</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36844,13 +36844,13 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36914,16 +36914,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>107.2231205187084</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>102.225266873466</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261598</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318504</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238016</v>
       </c>
       <c r="N32" t="n">
-        <v>581.8026381332443</v>
+        <v>645.9226305176212</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>487.9795421773856</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>35.0500461102038</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791171</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868808</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220908</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>261.8338889252711</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097889</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8015047505022</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,10 +37321,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634528664</v>
       </c>
       <c r="K37" t="n">
-        <v>210.9596397950874</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>173.4759251752883</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,22 +37707,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37874,10 +37874,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.05004611020335</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37947,19 +37947,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>221.4806783164134</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L46" t="n">
-        <v>171.4214974565488</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
